--- a/spliced/falling/2023-03-21_15-34-51/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-51/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.267019510269166</v>
+        <v>-0.647717118263246</v>
       </c>
       <c r="B2" t="n">
-        <v>0.685441792011261</v>
+        <v>0.6091025024652482</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.929712772369385</v>
+        <v>-1.090710066258908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.677021622657784</v>
+        <v>0.267019510269166</v>
       </c>
       <c r="B3" t="n">
-        <v>1.140331387519837</v>
+        <v>0.685441792011261</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.259481757879259</v>
+        <v>-1.929712772369385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.752705574035641</v>
+        <v>-2.677021622657784</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1266469955444285</v>
+        <v>1.140331387519837</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.833806037902831</v>
+        <v>-3.259481757879259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.037854313850402</v>
+        <v>-3.752705574035641</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.757584318518639</v>
+        <v>0.1266469955444285</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.232977330684662</v>
+        <v>-3.833806037902831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6653454303741511</v>
+        <v>-2.037854313850402</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.170329928398127</v>
+        <v>-1.757584318518639</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.288471162319181</v>
+        <v>-4.232977330684662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.532986879348751</v>
+        <v>0.6653454303741511</v>
       </c>
       <c r="B7" t="n">
-        <v>3.017351433634759</v>
+        <v>-1.170329928398127</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.068784326314926</v>
+        <v>-4.288471162319181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.19013786315915</v>
+        <v>6.532986879348751</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.260523200035099</v>
+        <v>3.017351433634759</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.666294097900378</v>
+        <v>-2.068784326314926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.454264044761617</v>
+        <v>18.19013786315915</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.018810793757443</v>
+        <v>-1.260523200035099</v>
       </c>
       <c r="C9" t="n">
-        <v>4.176114320755021</v>
+        <v>-1.666294097900378</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.487935662269598</v>
+        <v>3.454264044761617</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.543778419494628</v>
+        <v>-3.018810793757443</v>
       </c>
       <c r="C10" t="n">
-        <v>1.669345378875728</v>
+        <v>4.176114320755021</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.830603927373887</v>
+        <v>-2.487935662269598</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2204467952251492</v>
+        <v>-2.543778419494628</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.175938785076143</v>
+        <v>1.669345378875728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.900156617164608</v>
+        <v>-3.830603927373887</v>
       </c>
       <c r="B12" t="n">
-        <v>1.774007081985473</v>
+        <v>0.2204467952251492</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5321333408355735</v>
+        <v>-0.175938785076143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.05286502838134848</v>
+        <v>-1.900156617164608</v>
       </c>
       <c r="B13" t="n">
-        <v>1.17630578577518</v>
+        <v>1.774007081985473</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1615847945213218</v>
+        <v>0.5321333408355735</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2886838912963931</v>
+        <v>-0.05286502838134848</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.4110565781593385</v>
+        <v>1.17630578577518</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.086986064910885</v>
+        <v>0.1615847945213218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.627060890197746</v>
+        <v>0.2886838912963931</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.724348947405808</v>
+        <v>-0.4110565781593385</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.244763821363449</v>
+        <v>-2.086986064910885</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.4237871170043968</v>
+        <v>1.627060890197746</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08827400207519412</v>
+        <v>-1.724348947405808</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.242120027542113</v>
+        <v>-1.244763821363449</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.9415997862815861</v>
+        <v>-0.4237871170043968</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1760265231132508</v>
+        <v>0.08827400207519412</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.037874072790145</v>
+        <v>-1.242120027542113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.001672983169554332</v>
+        <v>-0.9415997862815861</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4224766492843636</v>
+        <v>-0.1760265231132508</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9314604401588438</v>
+        <v>-1.037874072790145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1520071625709529</v>
+        <v>-0.001672983169554332</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5053948163986203</v>
+        <v>0.4224766492843636</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4284574091434467</v>
+        <v>-0.9314604401588438</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0122048854827883</v>
+        <v>0.1520071625709529</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3785421848297117</v>
+        <v>0.5053948163986203</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2985985279083258</v>
+        <v>-0.4284574091434467</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5578445792198222</v>
+        <v>-0.0122048854827883</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3809743523597721</v>
+        <v>0.3785421848297117</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0945302546024358</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.200664520263672</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5283758044242859</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6270142197608946</v>
+        <v>-0.2985985279083258</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-51/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-51/accelerometer_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.647717118263246</v>
+        <v>1.442139625549314</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6091025024652482</v>
+        <v>0.4175686836242678</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.090710066258908</v>
+        <v>-0.7117971777915959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.267019510269166</v>
+        <v>-0.647717118263246</v>
       </c>
       <c r="B3" t="n">
-        <v>0.685441792011261</v>
+        <v>0.6091025024652482</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.929712772369385</v>
+        <v>-1.090710066258908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.677021622657784</v>
+        <v>0.267019510269166</v>
       </c>
       <c r="B4" t="n">
-        <v>1.140331387519837</v>
+        <v>0.685441792011261</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.259481757879259</v>
+        <v>-1.929712772369385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.752705574035641</v>
+        <v>-2.677021622657784</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1266469955444285</v>
+        <v>1.140331387519837</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.833806037902831</v>
+        <v>-3.259481757879259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.037854313850402</v>
+        <v>-3.752705574035641</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.757584318518639</v>
+        <v>0.1266469955444285</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.232977330684662</v>
+        <v>-3.833806037902831</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6653454303741511</v>
+        <v>-2.037854313850402</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.170329928398127</v>
+        <v>-1.757584318518639</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.288471162319181</v>
+        <v>-4.232977330684662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.532986879348751</v>
+        <v>0.6653454303741511</v>
       </c>
       <c r="B8" t="n">
-        <v>3.017351433634759</v>
+        <v>-1.170329928398127</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.068784326314926</v>
+        <v>-4.288471162319181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18.19013786315915</v>
+        <v>6.532986879348751</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.260523200035099</v>
+        <v>3.017351433634759</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.666294097900378</v>
+        <v>-2.068784326314926</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.454264044761617</v>
+        <v>18.19013786315915</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.018810793757443</v>
+        <v>-1.260523200035099</v>
       </c>
       <c r="C10" t="n">
-        <v>4.176114320755021</v>
+        <v>-1.666294097900378</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.487935662269598</v>
+        <v>3.454264044761617</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.543778419494628</v>
+        <v>-3.018810793757443</v>
       </c>
       <c r="C11" t="n">
-        <v>1.669345378875728</v>
+        <v>4.176114320755021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.830603927373887</v>
+        <v>-2.487935662269598</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2204467952251492</v>
+        <v>-2.543778419494628</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.175938785076143</v>
+        <v>1.669345378875728</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.900156617164608</v>
+        <v>-3.830603927373887</v>
       </c>
       <c r="B13" t="n">
-        <v>1.774007081985473</v>
+        <v>0.2204467952251492</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5321333408355735</v>
+        <v>-0.175938785076143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.05286502838134848</v>
+        <v>-1.900156617164608</v>
       </c>
       <c r="B14" t="n">
-        <v>1.17630578577518</v>
+        <v>1.774007081985473</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1615847945213218</v>
+        <v>0.5321333408355735</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2886838912963931</v>
+        <v>-0.05286502838134848</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.4110565781593385</v>
+        <v>1.17630578577518</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.086986064910885</v>
+        <v>0.1615847945213218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.627060890197746</v>
+        <v>0.2886838912963931</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.724348947405808</v>
+        <v>-0.4110565781593385</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.244763821363449</v>
+        <v>-2.086986064910885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.4237871170043968</v>
+        <v>1.627060890197746</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08827400207519412</v>
+        <v>-1.724348947405808</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.242120027542113</v>
+        <v>-1.244763821363449</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.9415997862815861</v>
+        <v>-0.4237871170043968</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1760265231132508</v>
+        <v>0.08827400207519412</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.037874072790145</v>
+        <v>-1.242120027542113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.001672983169554332</v>
+        <v>-0.9415997862815861</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4224766492843636</v>
+        <v>-0.1760265231132508</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9314604401588438</v>
+        <v>-1.037874072790145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1520071625709529</v>
+        <v>-0.001672983169554332</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5053948163986203</v>
+        <v>0.4224766492843636</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4284574091434467</v>
+        <v>-0.9314604401588438</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0122048854827883</v>
+        <v>0.1520071625709529</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3785421848297117</v>
+        <v>0.5053948163986203</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2985985279083258</v>
+        <v>-0.4284574091434467</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-51/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-51/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.442139625549314</v>
+        <v>-0.2407464981079101</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4175686836242678</v>
+        <v>0.5433270186185837</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7117971777915959</v>
+        <v>-0.3658644706010817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.647717118263246</v>
+        <v>-0.2030138969421392</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6091025024652482</v>
+        <v>0.5583634674549103</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.090710066258908</v>
+        <v>-0.1664191037416463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.267019510269166</v>
+        <v>-0.3572314977645862</v>
       </c>
       <c r="B4" t="n">
-        <v>0.685441792011261</v>
+        <v>0.5254133790731429</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.929712772369385</v>
+        <v>-0.5817861706018449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.677021622657784</v>
+        <v>1.442139625549314</v>
       </c>
       <c r="B5" t="n">
-        <v>1.140331387519837</v>
+        <v>0.4175686836242678</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.259481757879259</v>
+        <v>-0.7117971777915959</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.752705574035641</v>
+        <v>-0.647717118263246</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1266469955444285</v>
+        <v>0.6091025024652482</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.833806037902831</v>
+        <v>-1.090710066258908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.037854313850402</v>
+        <v>0.267019510269166</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.757584318518639</v>
+        <v>0.685441792011261</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.232977330684662</v>
+        <v>-1.929712772369385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6653454303741511</v>
+        <v>-2.677021622657784</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.170329928398127</v>
+        <v>1.140331387519837</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.288471162319181</v>
+        <v>-3.259481757879259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.532986879348751</v>
+        <v>-3.752705574035641</v>
       </c>
       <c r="B9" t="n">
-        <v>3.017351433634759</v>
+        <v>0.1266469955444285</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.068784326314926</v>
+        <v>-3.833806037902831</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18.19013786315915</v>
+        <v>-2.037854313850402</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.260523200035099</v>
+        <v>-1.757584318518639</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.666294097900378</v>
+        <v>-4.232977330684662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.454264044761617</v>
+        <v>0.6653454303741511</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.018810793757443</v>
+        <v>-1.170329928398127</v>
       </c>
       <c r="C11" t="n">
-        <v>4.176114320755021</v>
+        <v>-4.288471162319181</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.487935662269598</v>
+        <v>6.532986879348751</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.543778419494628</v>
+        <v>3.017351433634759</v>
       </c>
       <c r="C12" t="n">
-        <v>1.669345378875728</v>
+        <v>-2.068784326314926</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-3.830603927373887</v>
+        <v>18.19013786315915</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2204467952251492</v>
+        <v>-1.260523200035099</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.175938785076143</v>
+        <v>-1.666294097900378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.900156617164608</v>
+        <v>3.454264044761617</v>
       </c>
       <c r="B14" t="n">
-        <v>1.774007081985473</v>
+        <v>-3.018810793757443</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5321333408355735</v>
+        <v>4.176114320755021</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.05286502838134848</v>
+        <v>-2.487935662269598</v>
       </c>
       <c r="B15" t="n">
-        <v>1.17630578577518</v>
+        <v>-2.543778419494628</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1615847945213218</v>
+        <v>1.669345378875728</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2886838912963931</v>
+        <v>-3.830603927373887</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4110565781593385</v>
+        <v>0.2204467952251492</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.086986064910885</v>
+        <v>-0.175938785076143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.627060890197746</v>
+        <v>-1.900156617164608</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.724348947405808</v>
+        <v>1.774007081985473</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.244763821363449</v>
+        <v>0.5321333408355735</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4237871170043968</v>
+        <v>-0.05286502838134848</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08827400207519412</v>
+        <v>1.17630578577518</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.242120027542113</v>
+        <v>0.1615847945213218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.9415997862815861</v>
+        <v>0.2886838912963931</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1760265231132508</v>
+        <v>-0.4110565781593385</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.037874072790145</v>
+        <v>-2.086986064910885</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.001672983169554332</v>
+        <v>1.627060890197746</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4224766492843636</v>
+        <v>-1.724348947405808</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9314604401588438</v>
+        <v>-1.244763821363449</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.4237871170043968</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.08827400207519412</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.242120027542113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.9415997862815861</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1760265231132508</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.037874072790145</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.001672983169554332</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4224766492843636</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.9314604401588438</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>0.1520071625709529</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>0.5053948163986203</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-0.4284574091434467</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.0122048854827883</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3785421848297117</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2985985279083258</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.5578445792198222</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3809743523597721</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0945302546024358</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.200664520263672</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5283758044242859</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6270142197608946</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.02087068557739279</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6865898966789239</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.5058017373085018</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.09223079681396533</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5110847949981689</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3808159828186036</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.2094589471817022</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.502252608537674</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.392595499753952</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.01102042198181016</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4913336634635925</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.3189654350280756</v>
       </c>
     </row>
   </sheetData>
